--- a/X2110-Camera/100x/beads-6/center-sigma-red5.xlsx
+++ b/X2110-Camera/100x/beads-6/center-sigma-red5.xlsx
@@ -15,12 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>681.7106009547316</t>
+  </si>
+  <si>
+    <t>22.318974158787515</t>
+  </si>
+  <si>
+    <t>gaussian</t>
+  </si>
+  <si>
+    <t>681.2886117218657</t>
+  </si>
+  <si>
+    <t>22.067692477946828</t>
+  </si>
+  <si>
+    <t>681.3991488808899</t>
+  </si>
+  <si>
+    <t>22.580325023057366</t>
+  </si>
+  <si>
+    <t>679.7205310165627</t>
+  </si>
+  <si>
+    <t>21.597502713659395</t>
+  </si>
+  <si>
+    <t>679.5196039519927</t>
+  </si>
+  <si>
+    <t>21.78640593189523</t>
+  </si>
+  <si>
+    <t>680.4764266508112</t>
+  </si>
+  <si>
+    <t>21.88751812582082</t>
+  </si>
+  <si>
+    <t>680.0428698807092</t>
+  </si>
+  <si>
+    <t>25.907732570453142</t>
   </si>
 </sst>
 </file>
@@ -369,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,89 +425,113 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>681.7106009547316</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.31897415878752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>681.2886117218657</v>
-      </c>
-      <c r="C3" t="n">
-        <v>22.06769247794683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>681.3991488808899</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22.58032502305737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>679.7205310165627</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21.5975027136594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>679.5196039519927</v>
-      </c>
-      <c r="C6" t="n">
-        <v>21.78640593189523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>680.4764266508112</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21.88751812582082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>680.0428698807092</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.90773257045314</v>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
